--- a/biology/Microbiologie/Agrobacterium/Agrobacterium.xlsx
+++ b/biology/Microbiologie/Agrobacterium/Agrobacterium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agrobacterium est un genre de bactéries communes du sol et plus particulièrement du sol parcouru par les racines des plantes, dit sol rhizosphérique. Certaines sont pathogènes pour de nombreuses variétés végétales (on parle alors de phytopathogènes). A. tumefaciens est responsable de la formation d'une tumeur végétale, appelée galle du collet (en anglais : crown-gall). La bactérie a été identifiée à partir de ces tumeurs en 1907 par deux chercheurs américains, E.F. Smith et C.O. Townsend. Le mécanisme de formation des tumeurs s'apparente à une transformation génétique, un fragment d'ADN bactérien étant transféré de la bactérie vers la plante, puis intégré dans le matériel chromosomique végétal. Cette observation constitue le fondement d'une des techniques les plus utilisées en ingénierie génétique des végétaux.
-Il existe d'autres espèces d'Agrobacterium, telles A. vitis, responsable de la maladie du broussin de vigne (galle spécifique de la vigne), ou A. rhizogenes, responsable du hairy root, maladie caractérisée par l'apparition d'un chevelu racinaire au point d'infection. La taxonomie des agrobactéries reste très discutée ; elles sont de plus en plus considérées comme très proches des Rhizobium au point de ne plus devoir les différencier[1].
+Il existe d'autres espèces d'Agrobacterium, telles A. vitis, responsable de la maladie du broussin de vigne (galle spécifique de la vigne), ou A. rhizogenes, responsable du hairy root, maladie caractérisée par l'apparition d'un chevelu racinaire au point d'infection. La taxonomie des agrobactéries reste très discutée ; elles sont de plus en plus considérées comme très proches des Rhizobium au point de ne plus devoir les différencier.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Agrobacterium désigne des bacilles d'environ 1 x 3 microns, à coloration de Gram négative (dits gram négatif). Le genre Agrobacterium  appartient à la famille des Rhizobioaceae, elle-même incluse dans la classe des alpha-protéobactéries au sein du phyllum des proteobactéries.
-Le genre Agrobacterium est inclus dans la famille Rhizobiaceae qui regroupe de nombreuses bactéries capables d'induire la formation de nodosités siège de la fixation d'azote, telles que Rhizobium et Sinorhizobium. Aujourd'hui, différentes comparaisons, telles que des séquençages ARN 16S, montrent que ces genres sont très proches, au point que les taxonomistes se demandent s'il est pertinent de différencier Agrobacterium et Rhizobium[1]. Rhizobium colonise les Fabaceae, au sein de formation appelées nodosités, sièges d'une symbiose permettant la fixation de l'azote, bénéfique à la plante et possiblement au sol. Les plantes angiospermes, dites actinorhiziennes, tels que les aulnes, ainsi que certaines ericacées, myricacées et élaeagnacées ont également ces propriétés de fixation d'azote, en symbiose avec des bactéries du genre Frankia.
+Le genre Agrobacterium est inclus dans la famille Rhizobiaceae qui regroupe de nombreuses bactéries capables d'induire la formation de nodosités siège de la fixation d'azote, telles que Rhizobium et Sinorhizobium. Aujourd'hui, différentes comparaisons, telles que des séquençages ARN 16S, montrent que ces genres sont très proches, au point que les taxonomistes se demandent s'il est pertinent de différencier Agrobacterium et Rhizobium. Rhizobium colonise les Fabaceae, au sein de formation appelées nodosités, sièges d'une symbiose permettant la fixation de l'azote, bénéfique à la plante et possiblement au sol. Les plantes angiospermes, dites actinorhiziennes, tels que les aulnes, ainsi que certaines ericacées, myricacées et élaeagnacées ont également ces propriétés de fixation d'azote, en symbiose avec des bactéries du genre Frankia.
 Les bactéries du genre Agrobacterium  sont mobiles, et aérobies stricts pour la plupart. Certaines peuvent néanmoins respirer les nitrates en anaérobiose. Elles présentent une capacité d'utilisation des glucides très étendue. Leur température optimale de croissance s'étage de 24 à 28°. Dans ces conditions et dans un milieu de culture très favorable, leur temps de génération avoisine 120 minutes. À l'inverse, elles résistent très bien aux carences, aux milieux pauvres et peuvent ainsi survivre plusieurs semaines dans de l'eau pure, à 4 °C. Elles résistent aussi aux sels de tellure, et à de nombreux antibiotiques de type bêta-lactame.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La galle du collet est une maladie connue depuis l'antiquité; ses symptômes ont été décrits par des observateurs grecs et romains. Elle affectait - et affecte toujours - de nombreuses plantes de culture, tels la vigne ou les arbres fruitiers à noyau. En 1907, deux chercheurs américains, E.F. Smith et C.O. Townsend, isolent une bactérie de fragments de galle, qu'ils identifient comme l'agent pathogène responsable de la maladie, nommée Bacterium tumefaciens puis renommée Agrobacterium tumefaciens.
 En 1930, Riker et ses collaborateurs, dans le Wisconsin, identifient une bactérie responsable d'une autre maladie des végétaux, le "hairy-root", qui se traduit par l'apparition d'un chevelu racinaire au point d'infection. L'agent responsable sera nommé plus tard Agrobacterium rhizogenes.
@@ -582,9 +598,11 @@
           <t>Génome</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le génome d’Agrobacterium tumefaciens se compose de deux chromosomes, l'un linéaire et l'autre circulaire, et dans de nombreux cas de plasmides de haut poids moléculaire. Dans la souche de référence C58, le chromosome 1 est constitué d'environ 2800000 paires de bases (2800 kb) et porte 2833 gènes. Le chromosome 2 est constitué de 2075 kb et porte 1895 gènes. Les plasmides AtC58 et TiC58 comportent respectivement 540 et 210 kb, et regroupent 543 et 198 gènes. Le génome complet est donc constitué de 5675 kb et regroupe 5469 gènes. La séquence nucléotidique du génome de diverses souches d’Agrobacterium est connue et accessible par internet sur le site agrobacterium.org [2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le génome d’Agrobacterium tumefaciens se compose de deux chromosomes, l'un linéaire et l'autre circulaire, et dans de nombreux cas de plasmides de haut poids moléculaire. Dans la souche de référence C58, le chromosome 1 est constitué d'environ 2800000 paires de bases (2800 kb) et porte 2833 gènes. Le chromosome 2 est constitué de 2075 kb et porte 1895 gènes. Les plasmides AtC58 et TiC58 comportent respectivement 540 et 210 kb, et regroupent 543 et 198 gènes. Le génome complet est donc constitué de 5675 kb et regroupe 5469 gènes. La séquence nucléotidique du génome de diverses souches d’Agrobacterium est connue et accessible par internet sur le site agrobacterium.org .
 </t>
         </is>
       </c>
@@ -615,8 +633,13 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Selon la LPSN
-Depuis des années, la taxonomie du genre Agrobacterium est en pleine évolution[3]. L'espèce-type Agrobacterium tumefaciens est en cours de reclassement vers une sous-espèce d'Agrobacterium radiobacter dénommée Agrobacterium radiobacter subsp. tumefaciens. Plusieurs autres espèces ont été reclassées vers d'autres genres :
+          <t>Selon la LPSN</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Depuis des années, la taxonomie du genre Agrobacterium est en pleine évolution. L'espèce-type Agrobacterium tumefaciens est en cours de reclassement vers une sous-espèce d'Agrobacterium radiobacter dénommée Agrobacterium radiobacter subsp. tumefaciens. Plusieurs autres espèces ont été reclassées vers d'autres genres :
 anc. Agrobacterium atlanticum Rüger &amp; Höfle 1992 : reclassé en Ruegeria atlantica (Rüger and Höfle 1992) Uchino et al. 1999
 anc. Agrobacterium ferrugineum (ex Ahrens &amp; Rheinheimer 1967) Rüger &amp; Höfle 1992 : reclassé en Pseudorhodobacter ferrugineus (Rüger &amp; Höfle 1992) Uchino et al. 2003
 anc. Agrobacterium gelatinovorum (ex Ahrens 1968) Rüger &amp; Höfle 1992 : reclassé en Thalassobius gelatinovorus (Rüger &amp; Höfle 1992) Arahal et al. 2006
